--- a/Code/Results/Cases/Case_5_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035306535043513</v>
+        <v>1.065827479255052</v>
       </c>
       <c r="D2">
-        <v>1.052053936231971</v>
+        <v>1.070693648201878</v>
       </c>
       <c r="E2">
-        <v>1.03449980719162</v>
+        <v>1.060651646555675</v>
       </c>
       <c r="F2">
-        <v>1.053499399248732</v>
+        <v>1.078895023530078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065094365942785</v>
+        <v>1.057427365903892</v>
       </c>
       <c r="J2">
-        <v>1.056480182005703</v>
+        <v>1.070780602957231</v>
       </c>
       <c r="K2">
-        <v>1.062832757103285</v>
+        <v>1.073392804520508</v>
       </c>
       <c r="L2">
-        <v>1.045498551100978</v>
+        <v>1.063377845125482</v>
       </c>
       <c r="M2">
-        <v>1.064260517115546</v>
+        <v>1.081572497761493</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042661441298497</v>
+        <v>1.067233380747203</v>
       </c>
       <c r="D3">
-        <v>1.058165652383041</v>
+        <v>1.071871466379218</v>
       </c>
       <c r="E3">
-        <v>1.04090692855046</v>
+        <v>1.061890197493994</v>
       </c>
       <c r="F3">
-        <v>1.060403023176044</v>
+        <v>1.080266698717642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068445852609928</v>
+        <v>1.057968143368586</v>
       </c>
       <c r="J3">
-        <v>1.062053015415674</v>
+        <v>1.071840099561328</v>
       </c>
       <c r="K3">
-        <v>1.068104694525188</v>
+        <v>1.074386139827169</v>
       </c>
       <c r="L3">
-        <v>1.051041843023485</v>
+        <v>1.064429793187528</v>
       </c>
       <c r="M3">
-        <v>1.070317247131709</v>
+        <v>1.082760793607816</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047274973316257</v>
+        <v>1.068141393267369</v>
       </c>
       <c r="D4">
-        <v>1.062002058306438</v>
+        <v>1.072632127350014</v>
       </c>
       <c r="E4">
-        <v>1.044925089025571</v>
+        <v>1.062689604458665</v>
       </c>
       <c r="F4">
-        <v>1.064740255656567</v>
+        <v>1.081153105096139</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070535772278565</v>
+        <v>1.058315908036102</v>
       </c>
       <c r="J4">
-        <v>1.065542094076396</v>
+        <v>1.072523493457386</v>
       </c>
       <c r="K4">
-        <v>1.071405616192106</v>
+        <v>1.07502685138093</v>
       </c>
       <c r="L4">
-        <v>1.054509935207952</v>
+        <v>1.065107896215758</v>
       </c>
       <c r="M4">
-        <v>1.07411540531498</v>
+        <v>1.083528000873052</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049181585853353</v>
+        <v>1.068522721800556</v>
       </c>
       <c r="D5">
-        <v>1.063588081919148</v>
+        <v>1.072951563377022</v>
       </c>
       <c r="E5">
-        <v>1.046585392506522</v>
+        <v>1.063025198096776</v>
       </c>
       <c r="F5">
-        <v>1.066534242013408</v>
+        <v>1.081525478796881</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071396451086629</v>
+        <v>1.058461595563767</v>
       </c>
       <c r="J5">
-        <v>1.066982379442919</v>
+        <v>1.072810277835612</v>
       </c>
       <c r="K5">
-        <v>1.072768274205372</v>
+        <v>1.075295722342556</v>
       </c>
       <c r="L5">
-        <v>1.055940956451447</v>
+        <v>1.065392359337207</v>
       </c>
       <c r="M5">
-        <v>1.075684738168425</v>
+        <v>1.08385013343902</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049499837558209</v>
+        <v>1.068586725289642</v>
       </c>
       <c r="D6">
-        <v>1.063852852362633</v>
+        <v>1.073005177960183</v>
       </c>
       <c r="E6">
-        <v>1.046862513245534</v>
+        <v>1.063081517948598</v>
       </c>
       <c r="F6">
-        <v>1.066833783979542</v>
+        <v>1.081587986229358</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071539937175205</v>
+        <v>1.058486027161931</v>
       </c>
       <c r="J6">
-        <v>1.067222694741333</v>
+        <v>1.072858400184984</v>
       </c>
       <c r="K6">
-        <v>1.072995639413326</v>
+        <v>1.075340838708994</v>
       </c>
       <c r="L6">
-        <v>1.056179690564653</v>
+        <v>1.065440086260244</v>
       </c>
       <c r="M6">
-        <v>1.075946671050857</v>
+        <v>1.083904197537683</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047300576464568</v>
+        <v>1.068146490160673</v>
       </c>
       <c r="D7">
-        <v>1.062023354231272</v>
+        <v>1.072636397022394</v>
       </c>
       <c r="E7">
-        <v>1.044947385700481</v>
+        <v>1.062694090544148</v>
       </c>
       <c r="F7">
-        <v>1.064764340306534</v>
+        <v>1.081158081831319</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070547341975913</v>
+        <v>1.058317856730912</v>
       </c>
       <c r="J7">
-        <v>1.065561441609049</v>
+        <v>1.072527327498916</v>
       </c>
       <c r="K7">
-        <v>1.071423920789484</v>
+        <v>1.075030445944322</v>
       </c>
       <c r="L7">
-        <v>1.054529160678847</v>
+        <v>1.065111699621175</v>
       </c>
       <c r="M7">
-        <v>1.074136480585398</v>
+        <v>1.083532306794431</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037823523628067</v>
+        <v>1.066302966413604</v>
       </c>
       <c r="D8">
-        <v>1.054144864292441</v>
+        <v>1.071092004056841</v>
       </c>
       <c r="E8">
-        <v>1.036692588401119</v>
+        <v>1.061070642253742</v>
       </c>
       <c r="F8">
-        <v>1.055860475848955</v>
+        <v>1.079358831204239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066243895206751</v>
+        <v>1.05761057213135</v>
       </c>
       <c r="J8">
-        <v>1.058388678844652</v>
+        <v>1.07113911761919</v>
       </c>
       <c r="K8">
-        <v>1.064638151698204</v>
+        <v>1.073728932760774</v>
       </c>
       <c r="L8">
-        <v>1.047397455705951</v>
+        <v>1.063733893080732</v>
       </c>
       <c r="M8">
-        <v>1.066333432128082</v>
+        <v>1.08197444315388</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019912096693115</v>
+        <v>1.063041109525324</v>
       </c>
       <c r="D9">
-        <v>1.039280549624598</v>
+        <v>1.068359125397496</v>
       </c>
       <c r="E9">
-        <v>1.021087305350953</v>
+        <v>1.058194185078529</v>
       </c>
       <c r="F9">
-        <v>1.039091066699812</v>
+        <v>1.076179175093205</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058011867293105</v>
+        <v>1.056347607726527</v>
       </c>
       <c r="J9">
-        <v>1.044780784261565</v>
+        <v>1.06867604292126</v>
       </c>
       <c r="K9">
-        <v>1.051766926540201</v>
+        <v>1.071419635227627</v>
       </c>
       <c r="L9">
-        <v>1.033847275645448</v>
+        <v>1.061286022678951</v>
       </c>
       <c r="M9">
-        <v>1.051580230393584</v>
+        <v>1.079216023033635</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007003794457638</v>
+        <v>1.060857132490951</v>
       </c>
       <c r="D10">
-        <v>1.028592133164236</v>
+        <v>1.06652917380132</v>
       </c>
       <c r="E10">
-        <v>1.009843179198962</v>
+        <v>1.056265580315132</v>
       </c>
       <c r="F10">
-        <v>1.027051545703469</v>
+        <v>1.074052876661716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052015164344605</v>
+        <v>1.055494250801383</v>
       </c>
       <c r="J10">
-        <v>1.034942262534561</v>
+        <v>1.067022308759848</v>
       </c>
       <c r="K10">
-        <v>1.042463649629418</v>
+        <v>1.069869127738024</v>
       </c>
       <c r="L10">
-        <v>1.024036957559219</v>
+        <v>1.059640301342321</v>
       </c>
       <c r="M10">
-        <v>1.040948969918686</v>
+        <v>1.077367807824993</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00114464258599</v>
+        <v>1.059909116474136</v>
       </c>
       <c r="D11">
-        <v>1.0237478976453</v>
+        <v>1.065734805911138</v>
       </c>
       <c r="E11">
-        <v>1.004741199817838</v>
+        <v>1.055427785017955</v>
       </c>
       <c r="F11">
-        <v>1.021599092829666</v>
+        <v>1.073130532849826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049278806262511</v>
+        <v>1.055121994917916</v>
       </c>
       <c r="J11">
-        <v>1.030469880495681</v>
+        <v>1.066303375752429</v>
       </c>
       <c r="K11">
-        <v>1.038235441855754</v>
+        <v>1.069195068151977</v>
       </c>
       <c r="L11">
-        <v>1.019574254535469</v>
+        <v>1.058924329826847</v>
       </c>
       <c r="M11">
-        <v>1.036124861952834</v>
+        <v>1.076565233405362</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9989237659796347</v>
+        <v>1.059556621015877</v>
       </c>
       <c r="D12">
-        <v>1.021912971523414</v>
+        <v>1.065439437398486</v>
       </c>
       <c r="E12">
-        <v>1.002807718912059</v>
+        <v>1.055116177805805</v>
       </c>
       <c r="F12">
-        <v>1.01953437273359</v>
+        <v>1.072787679117253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048239517550021</v>
+        <v>1.054983306023267</v>
       </c>
       <c r="J12">
-        <v>1.028773743906428</v>
+        <v>1.066035896382689</v>
       </c>
       <c r="K12">
-        <v>1.036632059958739</v>
+        <v>1.068944283759381</v>
       </c>
       <c r="L12">
-        <v>1.017881324427391</v>
+        <v>1.058657873758373</v>
       </c>
       <c r="M12">
-        <v>1.034296656103477</v>
+        <v>1.076266771379325</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994022366796587</v>
+        <v>1.059632248922415</v>
       </c>
       <c r="D13">
-        <v>1.022308232966139</v>
+        <v>1.065502808848505</v>
       </c>
       <c r="E13">
-        <v>1.003224252487376</v>
+        <v>1.055183037410183</v>
       </c>
       <c r="F13">
-        <v>1.019979108010182</v>
+        <v>1.072861234028026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048463517158026</v>
+        <v>1.055013074170493</v>
       </c>
       <c r="J13">
-        <v>1.029139202817579</v>
+        <v>1.066093291436907</v>
       </c>
       <c r="K13">
-        <v>1.036977526170445</v>
+        <v>1.068998096453126</v>
       </c>
       <c r="L13">
-        <v>1.018246113256592</v>
+        <v>1.058715052789407</v>
       </c>
       <c r="M13">
-        <v>1.034690511330723</v>
+        <v>1.07633080845276</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000961997636155</v>
+        <v>1.059879986485535</v>
       </c>
       <c r="D14">
-        <v>1.023596966927709</v>
+        <v>1.065710396915108</v>
       </c>
       <c r="E14">
-        <v>1.004582181541512</v>
+        <v>1.055402035932365</v>
       </c>
       <c r="F14">
-        <v>1.021429248781375</v>
+        <v>1.073102197681397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049193376980996</v>
+        <v>1.055110539369009</v>
       </c>
       <c r="J14">
-        <v>1.030330408014838</v>
+        <v>1.06628127475003</v>
       </c>
       <c r="K14">
-        <v>1.038103593321319</v>
+        <v>1.069174346607461</v>
       </c>
       <c r="L14">
-        <v>1.01943505507959</v>
+        <v>1.058902314978353</v>
       </c>
       <c r="M14">
-        <v>1.035974502548047</v>
+        <v>1.076540569623999</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001916988746685</v>
+        <v>1.060032577799273</v>
       </c>
       <c r="D15">
-        <v>1.024386186464559</v>
+        <v>1.065838258177894</v>
       </c>
       <c r="E15">
-        <v>1.005413653233203</v>
+        <v>1.055536913230306</v>
       </c>
       <c r="F15">
-        <v>1.022317390251725</v>
+        <v>1.073250629438296</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049639974601474</v>
+        <v>1.055170535591388</v>
       </c>
       <c r="J15">
-        <v>1.031059628026909</v>
+        <v>1.066397039546239</v>
       </c>
       <c r="K15">
-        <v>1.038792958506089</v>
+        <v>1.069282885812097</v>
       </c>
       <c r="L15">
-        <v>1.020162828801591</v>
+        <v>1.059017625287171</v>
       </c>
       <c r="M15">
-        <v>1.036760697739187</v>
+        <v>1.076669763800188</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007386634348223</v>
+        <v>1.060919999166877</v>
       </c>
       <c r="D16">
-        <v>1.028908821437933</v>
+        <v>1.0665818509763</v>
       </c>
       <c r="E16">
-        <v>1.010176592224907</v>
+        <v>1.056321124567063</v>
       </c>
       <c r="F16">
-        <v>1.027408078688727</v>
+        <v>1.074114054345926</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052193667634889</v>
+        <v>1.055518898002805</v>
       </c>
       <c r="J16">
-        <v>1.035234360483309</v>
+        <v>1.067069961251117</v>
       </c>
       <c r="K16">
-        <v>1.04273981987546</v>
+        <v>1.069913805879585</v>
       </c>
       <c r="L16">
-        <v>1.024328359070555</v>
+        <v>1.059687746550444</v>
       </c>
       <c r="M16">
-        <v>1.041264219972327</v>
+        <v>1.077421023319369</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010742716596115</v>
+        <v>1.061476022724455</v>
       </c>
       <c r="D17">
-        <v>1.031685838967066</v>
+        <v>1.067047750662324</v>
       </c>
       <c r="E17">
-        <v>1.01309960000173</v>
+        <v>1.056812312296903</v>
       </c>
       <c r="F17">
-        <v>1.030534954417438</v>
+        <v>1.074655213014781</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053756861683263</v>
+        <v>1.055736678479207</v>
       </c>
       <c r="J17">
-        <v>1.03779423689358</v>
+        <v>1.067491298140651</v>
       </c>
       <c r="K17">
-        <v>1.045160209393638</v>
+        <v>1.070308843691891</v>
       </c>
       <c r="L17">
-        <v>1.026881779149666</v>
+        <v>1.060107190485043</v>
       </c>
       <c r="M17">
-        <v>1.044027970627744</v>
+        <v>1.077891651978342</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012674530419458</v>
+        <v>1.061800116711256</v>
       </c>
       <c r="D18">
-        <v>1.033285007454861</v>
+        <v>1.06731931080893</v>
       </c>
       <c r="E18">
-        <v>1.014782288736283</v>
+        <v>1.057098554112242</v>
       </c>
       <c r="F18">
-        <v>1.032335981885595</v>
+        <v>1.074970703730838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054655302952722</v>
+        <v>1.05586344138967</v>
       </c>
       <c r="J18">
-        <v>1.039267114964157</v>
+        <v>1.067736781788538</v>
       </c>
       <c r="K18">
-        <v>1.046552910112202</v>
+        <v>1.070539004433634</v>
       </c>
       <c r="L18">
-        <v>1.028350647463328</v>
+        <v>1.060351521005054</v>
       </c>
       <c r="M18">
-        <v>1.045618959511625</v>
+        <v>1.078165941705859</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013328977124556</v>
+        <v>1.061910586455744</v>
       </c>
       <c r="D19">
-        <v>1.033826872756157</v>
+        <v>1.067411873553642</v>
       </c>
       <c r="E19">
-        <v>1.015352362156323</v>
+        <v>1.057196111356735</v>
       </c>
       <c r="F19">
-        <v>1.032946312536486</v>
+        <v>1.075078251338502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054959438260961</v>
+        <v>1.055906619473997</v>
       </c>
       <c r="J19">
-        <v>1.03976597774212</v>
+        <v>1.067820438919537</v>
       </c>
       <c r="K19">
-        <v>1.04702462970233</v>
+        <v>1.070617439697862</v>
       </c>
       <c r="L19">
-        <v>1.028848101899793</v>
+        <v>1.060434776649931</v>
       </c>
       <c r="M19">
-        <v>1.046157962657537</v>
+        <v>1.078259430303852</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010385329494881</v>
+        <v>1.061416390009301</v>
       </c>
       <c r="D20">
-        <v>1.031390045048135</v>
+        <v>1.06699778386449</v>
       </c>
       <c r="E20">
-        <v>1.012788313329033</v>
+        <v>1.056759639416676</v>
       </c>
       <c r="F20">
-        <v>1.030201855011404</v>
+        <v>1.074597168205323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053590538768591</v>
+        <v>1.055713340107911</v>
       </c>
       <c r="J20">
-        <v>1.037521701864885</v>
+        <v>1.06744612117609</v>
       </c>
       <c r="K20">
-        <v>1.044902516315233</v>
+        <v>1.070266486616894</v>
       </c>
       <c r="L20">
-        <v>1.026609962110088</v>
+        <v>1.060062221687683</v>
       </c>
       <c r="M20">
-        <v>1.043733646176429</v>
+        <v>1.077841180783234</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00050395092402</v>
+        <v>1.059807043957852</v>
       </c>
       <c r="D21">
-        <v>1.023218475546908</v>
+        <v>1.065649275872284</v>
       </c>
       <c r="E21">
-        <v>1.004183393840775</v>
+        <v>1.055337557780721</v>
       </c>
       <c r="F21">
-        <v>1.021003337510189</v>
+        <v>1.073031246967475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048979099600441</v>
+        <v>1.055081849825181</v>
       </c>
       <c r="J21">
-        <v>1.029980617256964</v>
+        <v>1.066225930429374</v>
       </c>
       <c r="K21">
-        <v>1.037772925611014</v>
+        <v>1.069122456659642</v>
       </c>
       <c r="L21">
-        <v>1.019085941624176</v>
+        <v>1.058847185132019</v>
       </c>
       <c r="M21">
-        <v>1.035597429199882</v>
+        <v>1.076478809908426</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.994031115529876</v>
+        <v>1.058793096486481</v>
       </c>
       <c r="D22">
-        <v>1.017873081879518</v>
+        <v>1.064799648048384</v>
       </c>
       <c r="E22">
-        <v>0.998549088666239</v>
+        <v>1.05444104685177</v>
       </c>
       <c r="F22">
-        <v>1.014989605367878</v>
+        <v>1.072045215858027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04594617594426</v>
+        <v>1.054682395251955</v>
       </c>
       <c r="J22">
-        <v>1.025035542940275</v>
+        <v>1.065456224251664</v>
       </c>
       <c r="K22">
-        <v>1.033098594369212</v>
+        <v>1.06840079225611</v>
       </c>
       <c r="L22">
-        <v>1.014149343293381</v>
+        <v>1.058080275476423</v>
       </c>
       <c r="M22">
-        <v>1.030269851163074</v>
+        <v>1.075620203963097</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9974886193135373</v>
+        <v>1.059330810008866</v>
       </c>
       <c r="D23">
-        <v>1.020727603115685</v>
+        <v>1.065250221511545</v>
       </c>
       <c r="E23">
-        <v>1.001558417506631</v>
+        <v>1.054916533516166</v>
       </c>
       <c r="F23">
-        <v>1.018200718778438</v>
+        <v>1.072568071834037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047567343355753</v>
+        <v>1.054894383552069</v>
       </c>
       <c r="J23">
-        <v>1.02767744436429</v>
+        <v>1.065864501531899</v>
       </c>
       <c r="K23">
-        <v>1.035595758509315</v>
+        <v>1.068783586647512</v>
       </c>
       <c r="L23">
-        <v>1.016786967625411</v>
+        <v>1.058487112495504</v>
       </c>
       <c r="M23">
-        <v>1.033115369405329</v>
+        <v>1.076075561875339</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010546896566485</v>
+        <v>1.061443336162337</v>
       </c>
       <c r="D24">
-        <v>1.031523765076884</v>
+        <v>1.067020362300863</v>
       </c>
       <c r="E24">
-        <v>1.012929038895727</v>
+        <v>1.056783440826582</v>
       </c>
       <c r="F24">
-        <v>1.030352438576451</v>
+        <v>1.074623396644631</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053665734029464</v>
+        <v>1.055723886531508</v>
       </c>
       <c r="J24">
-        <v>1.037644911082875</v>
+        <v>1.067466535551781</v>
       </c>
       <c r="K24">
-        <v>1.045019015453273</v>
+        <v>1.070285626753652</v>
       </c>
       <c r="L24">
-        <v>1.026732847652724</v>
+        <v>1.060082542152964</v>
       </c>
       <c r="M24">
-        <v>1.043866703575003</v>
+        <v>1.07786398722384</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024700845911154</v>
+        <v>1.063886002974115</v>
       </c>
       <c r="D25">
-        <v>1.043251050222644</v>
+        <v>1.069067031703057</v>
       </c>
       <c r="E25">
-        <v>1.025259489838906</v>
+        <v>1.058939722532509</v>
       </c>
       <c r="F25">
-        <v>1.043567158556891</v>
+        <v>1.077002315078478</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060223878837931</v>
+        <v>1.056676105916165</v>
       </c>
       <c r="J25">
-        <v>1.048424593735394</v>
+        <v>1.06931484107251</v>
       </c>
       <c r="K25">
-        <v>1.055213101496365</v>
+        <v>1.072018555750557</v>
       </c>
       <c r="L25">
-        <v>1.03747794277747</v>
+        <v>1.061921262912349</v>
       </c>
       <c r="M25">
-        <v>1.055524804649637</v>
+        <v>1.079930748593193</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_163/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065827479255052</v>
+        <v>1.035306535043512</v>
       </c>
       <c r="D2">
-        <v>1.070693648201878</v>
+        <v>1.05205393623197</v>
       </c>
       <c r="E2">
-        <v>1.060651646555675</v>
+        <v>1.034499807191618</v>
       </c>
       <c r="F2">
-        <v>1.078895023530078</v>
+        <v>1.053499399248731</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057427365903892</v>
+        <v>1.065094365942784</v>
       </c>
       <c r="J2">
-        <v>1.070780602957231</v>
+        <v>1.056480182005701</v>
       </c>
       <c r="K2">
-        <v>1.073392804520508</v>
+        <v>1.062832757103284</v>
       </c>
       <c r="L2">
-        <v>1.063377845125482</v>
+        <v>1.045498551100977</v>
       </c>
       <c r="M2">
-        <v>1.081572497761493</v>
+        <v>1.064260517115545</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067233380747203</v>
+        <v>1.042661441298498</v>
       </c>
       <c r="D3">
-        <v>1.071871466379218</v>
+        <v>1.058165652383042</v>
       </c>
       <c r="E3">
-        <v>1.061890197493994</v>
+        <v>1.04090692855046</v>
       </c>
       <c r="F3">
-        <v>1.080266698717642</v>
+        <v>1.060403023176045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057968143368586</v>
+        <v>1.068445852609928</v>
       </c>
       <c r="J3">
-        <v>1.071840099561328</v>
+        <v>1.062053015415674</v>
       </c>
       <c r="K3">
-        <v>1.074386139827169</v>
+        <v>1.068104694525189</v>
       </c>
       <c r="L3">
-        <v>1.064429793187528</v>
+        <v>1.051041843023485</v>
       </c>
       <c r="M3">
-        <v>1.082760793607816</v>
+        <v>1.070317247131709</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068141393267369</v>
+        <v>1.047274973316256</v>
       </c>
       <c r="D4">
-        <v>1.072632127350014</v>
+        <v>1.062002058306438</v>
       </c>
       <c r="E4">
-        <v>1.062689604458665</v>
+        <v>1.04492508902557</v>
       </c>
       <c r="F4">
-        <v>1.081153105096139</v>
+        <v>1.064740255656567</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058315908036102</v>
+        <v>1.070535772278564</v>
       </c>
       <c r="J4">
-        <v>1.072523493457386</v>
+        <v>1.065542094076395</v>
       </c>
       <c r="K4">
-        <v>1.07502685138093</v>
+        <v>1.071405616192105</v>
       </c>
       <c r="L4">
-        <v>1.065107896215758</v>
+        <v>1.054509935207952</v>
       </c>
       <c r="M4">
-        <v>1.083528000873052</v>
+        <v>1.07411540531498</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068522721800556</v>
+        <v>1.049181585853352</v>
       </c>
       <c r="D5">
-        <v>1.072951563377022</v>
+        <v>1.063588081919147</v>
       </c>
       <c r="E5">
-        <v>1.063025198096776</v>
+        <v>1.046585392506521</v>
       </c>
       <c r="F5">
-        <v>1.081525478796881</v>
+        <v>1.066534242013407</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058461595563767</v>
+        <v>1.071396451086629</v>
       </c>
       <c r="J5">
-        <v>1.072810277835612</v>
+        <v>1.066982379442918</v>
       </c>
       <c r="K5">
-        <v>1.075295722342556</v>
+        <v>1.072768274205371</v>
       </c>
       <c r="L5">
-        <v>1.065392359337207</v>
+        <v>1.055940956451446</v>
       </c>
       <c r="M5">
-        <v>1.08385013343902</v>
+        <v>1.075684738168424</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068586725289642</v>
+        <v>1.049499837558208</v>
       </c>
       <c r="D6">
-        <v>1.073005177960183</v>
+        <v>1.063852852362633</v>
       </c>
       <c r="E6">
-        <v>1.063081517948598</v>
+        <v>1.046862513245534</v>
       </c>
       <c r="F6">
-        <v>1.081587986229358</v>
+        <v>1.066833783979542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058486027161931</v>
+        <v>1.071539937175205</v>
       </c>
       <c r="J6">
-        <v>1.072858400184984</v>
+        <v>1.067222694741332</v>
       </c>
       <c r="K6">
-        <v>1.075340838708994</v>
+        <v>1.072995639413325</v>
       </c>
       <c r="L6">
-        <v>1.065440086260244</v>
+        <v>1.056179690564652</v>
       </c>
       <c r="M6">
-        <v>1.083904197537683</v>
+        <v>1.075946671050856</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068146490160673</v>
+        <v>1.047300576464569</v>
       </c>
       <c r="D7">
-        <v>1.072636397022394</v>
+        <v>1.062023354231273</v>
       </c>
       <c r="E7">
-        <v>1.062694090544148</v>
+        <v>1.044947385700481</v>
       </c>
       <c r="F7">
-        <v>1.081158081831319</v>
+        <v>1.064764340306534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058317856730912</v>
+        <v>1.070547341975913</v>
       </c>
       <c r="J7">
-        <v>1.072527327498916</v>
+        <v>1.06556144160905</v>
       </c>
       <c r="K7">
-        <v>1.075030445944322</v>
+        <v>1.071423920789485</v>
       </c>
       <c r="L7">
-        <v>1.065111699621175</v>
+        <v>1.054529160678847</v>
       </c>
       <c r="M7">
-        <v>1.083532306794431</v>
+        <v>1.074136480585399</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066302966413604</v>
+        <v>1.037823523628066</v>
       </c>
       <c r="D8">
-        <v>1.071092004056841</v>
+        <v>1.054144864292441</v>
       </c>
       <c r="E8">
-        <v>1.061070642253742</v>
+        <v>1.036692588401119</v>
       </c>
       <c r="F8">
-        <v>1.079358831204239</v>
+        <v>1.055860475848954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05761057213135</v>
+        <v>1.066243895206751</v>
       </c>
       <c r="J8">
-        <v>1.07113911761919</v>
+        <v>1.058388678844652</v>
       </c>
       <c r="K8">
-        <v>1.073728932760774</v>
+        <v>1.064638151698203</v>
       </c>
       <c r="L8">
-        <v>1.063733893080732</v>
+        <v>1.047397455705951</v>
       </c>
       <c r="M8">
-        <v>1.08197444315388</v>
+        <v>1.066333432128082</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063041109525324</v>
+        <v>1.019912096693114</v>
       </c>
       <c r="D9">
-        <v>1.068359125397496</v>
+        <v>1.039280549624596</v>
       </c>
       <c r="E9">
-        <v>1.058194185078529</v>
+        <v>1.021087305350952</v>
       </c>
       <c r="F9">
-        <v>1.076179175093205</v>
+        <v>1.039091066699811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056347607726527</v>
+        <v>1.058011867293105</v>
       </c>
       <c r="J9">
-        <v>1.06867604292126</v>
+        <v>1.044780784261564</v>
       </c>
       <c r="K9">
-        <v>1.071419635227627</v>
+        <v>1.0517669265402</v>
       </c>
       <c r="L9">
-        <v>1.061286022678951</v>
+        <v>1.033847275645448</v>
       </c>
       <c r="M9">
-        <v>1.079216023033635</v>
+        <v>1.051580230393583</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060857132490951</v>
+        <v>1.007003794457637</v>
       </c>
       <c r="D10">
-        <v>1.06652917380132</v>
+        <v>1.028592133164236</v>
       </c>
       <c r="E10">
-        <v>1.056265580315132</v>
+        <v>1.009843179198962</v>
       </c>
       <c r="F10">
-        <v>1.074052876661716</v>
+        <v>1.027051545703468</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055494250801383</v>
+        <v>1.052015164344605</v>
       </c>
       <c r="J10">
-        <v>1.067022308759848</v>
+        <v>1.034942262534561</v>
       </c>
       <c r="K10">
-        <v>1.069869127738024</v>
+        <v>1.042463649629417</v>
       </c>
       <c r="L10">
-        <v>1.059640301342321</v>
+        <v>1.024036957559219</v>
       </c>
       <c r="M10">
-        <v>1.077367807824993</v>
+        <v>1.040948969918685</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059909116474136</v>
+        <v>1.001144642585988</v>
       </c>
       <c r="D11">
-        <v>1.065734805911138</v>
+        <v>1.023747897645297</v>
       </c>
       <c r="E11">
-        <v>1.055427785017955</v>
+        <v>1.004741199817835</v>
       </c>
       <c r="F11">
-        <v>1.073130532849826</v>
+        <v>1.021599092829663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055121994917916</v>
+        <v>1.04927880626251</v>
       </c>
       <c r="J11">
-        <v>1.066303375752429</v>
+        <v>1.030469880495679</v>
       </c>
       <c r="K11">
-        <v>1.069195068151977</v>
+        <v>1.038235441855752</v>
       </c>
       <c r="L11">
-        <v>1.058924329826847</v>
+        <v>1.019574254535467</v>
       </c>
       <c r="M11">
-        <v>1.076565233405362</v>
+        <v>1.036124861952831</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059556621015877</v>
+        <v>0.9989237659796338</v>
       </c>
       <c r="D12">
-        <v>1.065439437398486</v>
+        <v>1.021912971523413</v>
       </c>
       <c r="E12">
-        <v>1.055116177805805</v>
+        <v>1.002807718912059</v>
       </c>
       <c r="F12">
-        <v>1.072787679117253</v>
+        <v>1.019534372733589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054983306023267</v>
+        <v>1.048239517550021</v>
       </c>
       <c r="J12">
-        <v>1.066035896382689</v>
+        <v>1.028773743906427</v>
       </c>
       <c r="K12">
-        <v>1.068944283759381</v>
+        <v>1.036632059958738</v>
       </c>
       <c r="L12">
-        <v>1.058657873758373</v>
+        <v>1.017881324427391</v>
       </c>
       <c r="M12">
-        <v>1.076266771379325</v>
+        <v>1.034296656103476</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059632248922415</v>
+        <v>0.9994022366796592</v>
       </c>
       <c r="D13">
-        <v>1.065502808848505</v>
+        <v>1.022308232966139</v>
       </c>
       <c r="E13">
-        <v>1.055183037410183</v>
+        <v>1.003224252487377</v>
       </c>
       <c r="F13">
-        <v>1.072861234028026</v>
+        <v>1.019979108010183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055013074170493</v>
+        <v>1.048463517158027</v>
       </c>
       <c r="J13">
-        <v>1.066093291436907</v>
+        <v>1.02913920281758</v>
       </c>
       <c r="K13">
-        <v>1.068998096453126</v>
+        <v>1.036977526170446</v>
       </c>
       <c r="L13">
-        <v>1.058715052789407</v>
+        <v>1.018246113256592</v>
       </c>
       <c r="M13">
-        <v>1.07633080845276</v>
+        <v>1.034690511330724</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059879986485535</v>
+        <v>1.000961997636155</v>
       </c>
       <c r="D14">
-        <v>1.065710396915108</v>
+        <v>1.023596966927709</v>
       </c>
       <c r="E14">
-        <v>1.055402035932365</v>
+        <v>1.004582181541512</v>
       </c>
       <c r="F14">
-        <v>1.073102197681397</v>
+        <v>1.021429248781376</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055110539369009</v>
+        <v>1.049193376980997</v>
       </c>
       <c r="J14">
-        <v>1.06628127475003</v>
+        <v>1.030330408014839</v>
       </c>
       <c r="K14">
-        <v>1.069174346607461</v>
+        <v>1.038103593321319</v>
       </c>
       <c r="L14">
-        <v>1.058902314978353</v>
+        <v>1.01943505507959</v>
       </c>
       <c r="M14">
-        <v>1.076540569623999</v>
+        <v>1.035974502548048</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060032577799273</v>
+        <v>1.001916988746684</v>
       </c>
       <c r="D15">
-        <v>1.065838258177894</v>
+        <v>1.024386186464558</v>
       </c>
       <c r="E15">
-        <v>1.055536913230306</v>
+        <v>1.005413653233202</v>
       </c>
       <c r="F15">
-        <v>1.073250629438296</v>
+        <v>1.022317390251725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055170535591388</v>
+        <v>1.049639974601474</v>
       </c>
       <c r="J15">
-        <v>1.066397039546239</v>
+        <v>1.031059628026908</v>
       </c>
       <c r="K15">
-        <v>1.069282885812097</v>
+        <v>1.038792958506088</v>
       </c>
       <c r="L15">
-        <v>1.059017625287171</v>
+        <v>1.02016282880159</v>
       </c>
       <c r="M15">
-        <v>1.076669763800188</v>
+        <v>1.036760697739187</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060919999166877</v>
+        <v>1.007386634348222</v>
       </c>
       <c r="D16">
-        <v>1.0665818509763</v>
+        <v>1.028908821437932</v>
       </c>
       <c r="E16">
-        <v>1.056321124567063</v>
+        <v>1.010176592224906</v>
       </c>
       <c r="F16">
-        <v>1.074114054345926</v>
+        <v>1.027408078688726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055518898002805</v>
+        <v>1.052193667634888</v>
       </c>
       <c r="J16">
-        <v>1.067069961251117</v>
+        <v>1.035234360483308</v>
       </c>
       <c r="K16">
-        <v>1.069913805879585</v>
+        <v>1.042739819875459</v>
       </c>
       <c r="L16">
-        <v>1.059687746550444</v>
+        <v>1.024328359070554</v>
       </c>
       <c r="M16">
-        <v>1.077421023319369</v>
+        <v>1.041264219972326</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061476022724455</v>
+        <v>1.010742716596114</v>
       </c>
       <c r="D17">
-        <v>1.067047750662324</v>
+        <v>1.031685838967066</v>
       </c>
       <c r="E17">
-        <v>1.056812312296903</v>
+        <v>1.013099600001729</v>
       </c>
       <c r="F17">
-        <v>1.074655213014781</v>
+        <v>1.030534954417437</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055736678479207</v>
+        <v>1.053756861683263</v>
       </c>
       <c r="J17">
-        <v>1.067491298140651</v>
+        <v>1.037794236893579</v>
       </c>
       <c r="K17">
-        <v>1.070308843691891</v>
+        <v>1.045160209393637</v>
       </c>
       <c r="L17">
-        <v>1.060107190485043</v>
+        <v>1.026881779149665</v>
       </c>
       <c r="M17">
-        <v>1.077891651978342</v>
+        <v>1.044027970627742</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061800116711256</v>
+        <v>1.012674530419457</v>
       </c>
       <c r="D18">
-        <v>1.06731931080893</v>
+        <v>1.033285007454861</v>
       </c>
       <c r="E18">
-        <v>1.057098554112242</v>
+        <v>1.014782288736282</v>
       </c>
       <c r="F18">
-        <v>1.074970703730838</v>
+        <v>1.032335981885594</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05586344138967</v>
+        <v>1.054655302952722</v>
       </c>
       <c r="J18">
-        <v>1.067736781788538</v>
+        <v>1.039267114964156</v>
       </c>
       <c r="K18">
-        <v>1.070539004433634</v>
+        <v>1.046552910112201</v>
       </c>
       <c r="L18">
-        <v>1.060351521005054</v>
+        <v>1.028350647463328</v>
       </c>
       <c r="M18">
-        <v>1.078165941705859</v>
+        <v>1.045618959511624</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061910586455744</v>
+        <v>1.013328977124557</v>
       </c>
       <c r="D19">
-        <v>1.067411873553642</v>
+        <v>1.033826872756158</v>
       </c>
       <c r="E19">
-        <v>1.057196111356735</v>
+        <v>1.015352362156324</v>
       </c>
       <c r="F19">
-        <v>1.075078251338502</v>
+        <v>1.032946312536487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055906619473997</v>
+        <v>1.054959438260962</v>
       </c>
       <c r="J19">
-        <v>1.067820438919537</v>
+        <v>1.039765977742122</v>
       </c>
       <c r="K19">
-        <v>1.070617439697862</v>
+        <v>1.047024629702331</v>
       </c>
       <c r="L19">
-        <v>1.060434776649931</v>
+        <v>1.028848101899795</v>
       </c>
       <c r="M19">
-        <v>1.078259430303852</v>
+        <v>1.046157962657538</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061416390009301</v>
+        <v>1.010385329494883</v>
       </c>
       <c r="D20">
-        <v>1.06699778386449</v>
+        <v>1.031390045048137</v>
       </c>
       <c r="E20">
-        <v>1.056759639416676</v>
+        <v>1.012788313329035</v>
       </c>
       <c r="F20">
-        <v>1.074597168205323</v>
+        <v>1.030201855011407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055713340107911</v>
+        <v>1.053590538768593</v>
       </c>
       <c r="J20">
-        <v>1.06744612117609</v>
+        <v>1.037521701864887</v>
       </c>
       <c r="K20">
-        <v>1.070266486616894</v>
+        <v>1.044902516315235</v>
       </c>
       <c r="L20">
-        <v>1.060062221687683</v>
+        <v>1.02660996211009</v>
       </c>
       <c r="M20">
-        <v>1.077841180783234</v>
+        <v>1.043733646176431</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059807043957852</v>
+        <v>1.000503950924021</v>
       </c>
       <c r="D21">
-        <v>1.065649275872284</v>
+        <v>1.02321847554691</v>
       </c>
       <c r="E21">
-        <v>1.055337557780721</v>
+        <v>1.004183393840776</v>
       </c>
       <c r="F21">
-        <v>1.073031246967475</v>
+        <v>1.02100333751019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055081849825181</v>
+        <v>1.048979099600442</v>
       </c>
       <c r="J21">
-        <v>1.066225930429374</v>
+        <v>1.029980617256966</v>
       </c>
       <c r="K21">
-        <v>1.069122456659642</v>
+        <v>1.037772925611016</v>
       </c>
       <c r="L21">
-        <v>1.058847185132019</v>
+        <v>1.019085941624177</v>
       </c>
       <c r="M21">
-        <v>1.076478809908426</v>
+        <v>1.035597429199883</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058793096486481</v>
+        <v>0.994031115529875</v>
       </c>
       <c r="D22">
-        <v>1.064799648048384</v>
+        <v>1.017873081879517</v>
       </c>
       <c r="E22">
-        <v>1.05444104685177</v>
+        <v>0.9985490886662381</v>
       </c>
       <c r="F22">
-        <v>1.072045215858027</v>
+        <v>1.014989605367878</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054682395251955</v>
+        <v>1.04594617594426</v>
       </c>
       <c r="J22">
-        <v>1.065456224251664</v>
+        <v>1.025035542940275</v>
       </c>
       <c r="K22">
-        <v>1.06840079225611</v>
+        <v>1.033098594369211</v>
       </c>
       <c r="L22">
-        <v>1.058080275476423</v>
+        <v>1.01414934329338</v>
       </c>
       <c r="M22">
-        <v>1.075620203963097</v>
+        <v>1.030269851163073</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059330810008866</v>
+        <v>0.9974886193135372</v>
       </c>
       <c r="D23">
-        <v>1.065250221511545</v>
+        <v>1.020727603115685</v>
       </c>
       <c r="E23">
-        <v>1.054916533516166</v>
+        <v>1.001558417506631</v>
       </c>
       <c r="F23">
-        <v>1.072568071834037</v>
+        <v>1.018200718778437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054894383552069</v>
+        <v>1.047567343355753</v>
       </c>
       <c r="J23">
-        <v>1.065864501531899</v>
+        <v>1.02767744436429</v>
       </c>
       <c r="K23">
-        <v>1.068783586647512</v>
+        <v>1.035595758509315</v>
       </c>
       <c r="L23">
-        <v>1.058487112495504</v>
+        <v>1.01678696762541</v>
       </c>
       <c r="M23">
-        <v>1.076075561875339</v>
+        <v>1.033115369405329</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061443336162337</v>
+        <v>1.010546896566483</v>
       </c>
       <c r="D24">
-        <v>1.067020362300863</v>
+        <v>1.031523765076883</v>
       </c>
       <c r="E24">
-        <v>1.056783440826582</v>
+        <v>1.012929038895726</v>
       </c>
       <c r="F24">
-        <v>1.074623396644631</v>
+        <v>1.03035243857645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055723886531508</v>
+        <v>1.053665734029463</v>
       </c>
       <c r="J24">
-        <v>1.067466535551781</v>
+        <v>1.037644911082874</v>
       </c>
       <c r="K24">
-        <v>1.070285626753652</v>
+        <v>1.045019015453271</v>
       </c>
       <c r="L24">
-        <v>1.060082542152964</v>
+        <v>1.026732847652723</v>
       </c>
       <c r="M24">
-        <v>1.07786398722384</v>
+        <v>1.043866703575002</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063886002974115</v>
+        <v>1.024700845911153</v>
       </c>
       <c r="D25">
-        <v>1.069067031703057</v>
+        <v>1.043251050222644</v>
       </c>
       <c r="E25">
-        <v>1.058939722532509</v>
+        <v>1.025259489838906</v>
       </c>
       <c r="F25">
-        <v>1.077002315078478</v>
+        <v>1.04356715855689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056676105916165</v>
+        <v>1.060223878837931</v>
       </c>
       <c r="J25">
-        <v>1.06931484107251</v>
+        <v>1.048424593735393</v>
       </c>
       <c r="K25">
-        <v>1.072018555750557</v>
+        <v>1.055213101496365</v>
       </c>
       <c r="L25">
-        <v>1.061921262912349</v>
+        <v>1.037477942777469</v>
       </c>
       <c r="M25">
-        <v>1.079930748593193</v>
+        <v>1.055524804649637</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
